--- a/Assets/Scripts/Core/Parser/Stage.xlsx
+++ b/Assets/Scripts/Core/Parser/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wnsrl\OneDrive\바탕 화면\Dev\IdleGameProject\Assets\Scripts\Core\Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE71FB8-15C9-450E-970B-2E4D1C64FF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B56E9-E9A5-4C6A-8884-EBB3783B97B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2055" windowWidth="19710" windowHeight="12645" xr2:uid="{6A3B98CA-3AD0-4B4C-8BCF-D55454C11B3B}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9302AC-0182-4A8C-A154-E73C7706D75B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
